--- a/data/trans_orig/P2A_psíq_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_psíq_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20A2400D-C744-4911-97C6-687B8C59DEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ECBB68D-155E-4F24-AC7B-7D613F48CBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B586B06-8D9E-4649-AE80-AB95CE21A236}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4014EB27-C178-47AD-8FD0-9E06EB2EBB12}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="356">
-  <si>
-    <t>Hogares con personas con limitación, discapacidad psíquica en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="340">
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,73%</t>
+    <t>4,64%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,1021 +92,973 @@
     <t>0,46%</t>
   </si>
   <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>97,66%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>99,86%</t>
   </si>
   <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad psíquica en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad psíquica en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad psíquica en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>15,62%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>84,38%</t>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>95,88%</t>
   </si>
   <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7DD80C-3657-4889-BE30-BA7887CCD4D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8656104-BB44-4344-8A3C-099EF648300B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1958,7 +1910,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -1967,13 +1919,13 @@
         <v>10319</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -1982,13 +1934,13 @@
         <v>22263</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2003,13 +1955,13 @@
         <v>949856</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
         <v>898</v>
@@ -2018,13 +1970,13 @@
         <v>958074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>1783</v>
@@ -2033,13 +1985,13 @@
         <v>1907930</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,7 +2047,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2107,13 +2059,13 @@
         <v>3774</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -2122,13 +2074,13 @@
         <v>12886</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2137,13 +2089,13 @@
         <v>16660</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2110,13 @@
         <v>674735</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>683</v>
@@ -2173,13 +2125,13 @@
         <v>670955</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>1321</v>
@@ -2188,13 +2140,13 @@
         <v>1345690</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,7 +2202,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2262,13 +2214,13 @@
         <v>9108</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -2277,13 +2229,13 @@
         <v>12250</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -2292,13 +2244,13 @@
         <v>21358</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,13 +2265,13 @@
         <v>933114</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>985</v>
@@ -2328,13 +2280,13 @@
         <v>1026362</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>1970</v>
@@ -2343,13 +2295,13 @@
         <v>1959476</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,10 +2372,10 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -2432,13 +2384,13 @@
         <v>37457</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -2447,13 +2399,13 @@
         <v>67198</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,16 +2417,16 @@
         <v>3186</v>
       </c>
       <c r="D20" s="7">
-        <v>3246802</v>
+        <v>3246803</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7">
         <v>3260</v>
@@ -2483,28 +2435,28 @@
         <v>3341741</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>6446</v>
       </c>
       <c r="N20" s="7">
-        <v>6588543</v>
+        <v>6588542</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,7 +2468,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -2546,7 +2498,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -2560,7 +2512,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2581,7 +2533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E1F11A-C929-463E-8B57-8554861E1931}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9CB2D3-B9FF-4473-9A6D-090BDE8547BF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2598,7 +2550,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2705,13 +2657,13 @@
         <v>3303</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2720,13 +2672,13 @@
         <v>3478</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2735,13 +2687,13 @@
         <v>6781</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2708,13 @@
         <v>112462</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
@@ -2771,13 +2723,13 @@
         <v>108427</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
         <v>215</v>
@@ -2786,13 +2738,13 @@
         <v>220889</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2812,13 @@
         <v>14897</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -2875,13 +2827,13 @@
         <v>17775</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -2890,13 +2842,13 @@
         <v>32672</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2863,13 @@
         <v>572807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="H8" s="7">
         <v>534</v>
@@ -2926,13 +2878,13 @@
         <v>567370</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="M8" s="7">
         <v>1075</v>
@@ -2941,13 +2893,13 @@
         <v>1140177</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +2967,13 @@
         <v>15665</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3030,13 +2982,13 @@
         <v>18547</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3045,13 +2997,13 @@
         <v>34212</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3018,13 @@
         <v>1002282</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>923</v>
@@ -3081,13 +3033,13 @@
         <v>1013637</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>1844</v>
@@ -3096,13 +3048,13 @@
         <v>2015919</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,7 +3110,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3170,13 +3122,13 @@
         <v>8331</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3185,13 +3137,13 @@
         <v>9138</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3200,13 +3152,13 @@
         <v>17469</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3173,13 @@
         <v>749292</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
         <v>696</v>
@@ -3236,13 +3188,13 @@
         <v>768036</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>1378</v>
@@ -3251,13 +3203,13 @@
         <v>1517328</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3265,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3325,13 +3277,13 @@
         <v>21314</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -3340,13 +3292,13 @@
         <v>25277</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -3355,13 +3307,13 @@
         <v>46592</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3328,13 @@
         <v>926425</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>980</v>
@@ -3391,13 +3343,13 @@
         <v>1026624</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>1871</v>
@@ -3406,13 +3358,13 @@
         <v>1953048</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,13 +3432,13 @@
         <v>63511</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H19" s="7">
         <v>69</v>
@@ -3495,13 +3447,13 @@
         <v>74215</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>124</v>
@@ -3510,13 +3462,13 @@
         <v>137726</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3483,13 @@
         <v>3363268</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H20" s="7">
         <v>3229</v>
@@ -3546,13 +3498,13 @@
         <v>3484094</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M20" s="7">
         <v>6383</v>
@@ -3561,13 +3513,13 @@
         <v>6847362</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,7 +3575,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3644,7 +3596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2845E374-FCF2-4021-BD59-FA8F51271EEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13555E3C-2304-4C14-9CEA-6FBADC20AFC3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3661,7 +3613,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3768,13 +3720,13 @@
         <v>993</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3783,13 +3735,13 @@
         <v>2899</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3798,13 +3750,13 @@
         <v>3892</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,10 +3771,10 @@
         <v>115553</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3834,13 +3786,13 @@
         <v>110461</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
         <v>224</v>
@@ -3849,13 +3801,13 @@
         <v>226014</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3875,13 @@
         <v>5981</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3938,13 +3890,13 @@
         <v>5184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3953,13 +3905,13 @@
         <v>11165</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3926,13 @@
         <v>552273</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>546</v>
@@ -3989,13 +3941,13 @@
         <v>554295</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>1079</v>
@@ -4004,13 +3956,13 @@
         <v>1106568</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4030,13 @@
         <v>12782</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4093,13 +4045,13 @@
         <v>16502</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -4108,13 +4060,13 @@
         <v>29285</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4081,13 @@
         <v>1009649</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
         <v>962</v>
@@ -4144,13 +4096,13 @@
         <v>1026411</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="M11" s="7">
         <v>1902</v>
@@ -4159,13 +4111,13 @@
         <v>2036059</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,7 +4173,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4233,13 +4185,13 @@
         <v>4537</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4248,13 +4200,13 @@
         <v>8898</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -4263,13 +4215,13 @@
         <v>13434</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4236,13 @@
         <v>755015</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
         <v>728</v>
@@ -4299,13 +4251,13 @@
         <v>776113</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>1420</v>
@@ -4314,13 +4266,13 @@
         <v>1531129</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,7 +4328,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4388,13 +4340,13 @@
         <v>7608</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -4403,13 +4355,13 @@
         <v>22904</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -4418,13 +4370,13 @@
         <v>30512</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4391,13 @@
         <v>929959</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H17" s="7">
         <v>939</v>
@@ -4454,13 +4406,13 @@
         <v>1020875</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>1863</v>
@@ -4469,13 +4421,13 @@
         <v>1950834</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4495,13 @@
         <v>31901</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -4558,13 +4510,13 @@
         <v>56387</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>81</v>
@@ -4573,13 +4525,13 @@
         <v>88288</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>277</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>278</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4546,13 @@
         <v>3362449</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>3287</v>
@@ -4609,13 +4561,13 @@
         <v>3488155</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>6488</v>
@@ -4624,13 +4576,13 @@
         <v>6850604</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>284</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,7 +4638,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4707,7 +4659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8222B7-AF77-4F94-896C-BDA3F114DDD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B2F6D7-327E-4A74-94C5-61C031B76FE6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4724,7 +4676,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4831,13 +4783,13 @@
         <v>1291</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>277</v>
+        <v>94</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4846,13 +4798,13 @@
         <v>3747</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4861,13 +4813,13 @@
         <v>5038</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>290</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,10 +4834,10 @@
         <v>100691</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4897,13 +4849,13 @@
         <v>126986</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>353</v>
@@ -4912,13 +4864,13 @@
         <v>227677</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>295</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +4938,13 @@
         <v>6246</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -5001,13 +4953,13 @@
         <v>14418</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5016,13 +4968,13 @@
         <v>20664</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +4989,13 @@
         <v>543577</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="H8" s="7">
         <v>972</v>
@@ -5052,13 +5004,13 @@
         <v>605549</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="M8" s="7">
         <v>1576</v>
@@ -5067,13 +5019,13 @@
         <v>1149126</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>289</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>282</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5093,13 @@
         <v>18856</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -5156,13 +5108,13 @@
         <v>30077</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -5171,13 +5123,13 @@
         <v>48933</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5144,13 @@
         <v>1020392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>1471</v>
@@ -5207,13 +5159,13 @@
         <v>1030002</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>2415</v>
@@ -5222,13 +5174,13 @@
         <v>2050394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,7 +5236,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5296,13 +5248,13 @@
         <v>23446</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>315</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -5311,13 +5263,13 @@
         <v>135351</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -5326,13 +5278,13 @@
         <v>158797</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5299,13 @@
         <v>705326</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>324</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>1016</v>
@@ -5362,13 +5314,13 @@
         <v>739020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="M14" s="7">
         <v>1669</v>
@@ -5377,13 +5329,13 @@
         <v>1444345</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,7 +5391,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5451,13 +5403,13 @@
         <v>27839</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -5466,13 +5418,13 @@
         <v>36347</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>175</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -5481,13 +5433,13 @@
         <v>64186</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>172</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5454,13 @@
         <v>937564</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
         <v>1509</v>
@@ -5517,13 +5469,13 @@
         <v>1114085</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>2485</v>
@@ -5532,13 +5484,13 @@
         <v>2051649</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5558,13 @@
         <v>77678</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>298</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>162</v>
@@ -5621,13 +5573,13 @@
         <v>219940</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>328</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>245</v>
@@ -5636,13 +5588,13 @@
         <v>297618</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5609,13 @@
         <v>3307550</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>349</v>
+        <v>25</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>5205</v>
@@ -5672,28 +5624,28 @@
         <v>3615641</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>8498</v>
       </c>
       <c r="N20" s="7">
-        <v>6923190</v>
+        <v>6923191</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,7 +5687,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -5749,7 +5701,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_psíq_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_psíq_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ECBB68D-155E-4F24-AC7B-7D613F48CBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{115750E6-A0F6-4092-96E6-15506DDD40DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4014EB27-C178-47AD-8FD0-9E06EB2EBB12}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{46F1FE4B-7A11-436F-BCFE-C618FDD8DBB4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="302">
   <si>
     <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,997 +68,883 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>97,84%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
 </sst>
 </file>
@@ -1470,8 +1356,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8656104-BB44-4344-8A3C-099EF648300B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E401C08-86FD-4A3F-B5B8-684886673C98}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1588,10 +1474,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>1054</v>
+        <v>4915</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1603,85 +1489,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2954</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>1054</v>
+        <v>7869</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>678</v>
       </c>
       <c r="D5" s="7">
-        <v>114304</v>
+        <v>689097</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>128</v>
+        <v>693</v>
       </c>
       <c r="I5" s="7">
-        <v>112755</v>
+        <v>685397</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>232</v>
+        <v>1371</v>
       </c>
       <c r="N5" s="7">
-        <v>227059</v>
+        <v>1374494</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1690,153 +1576,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>3861</v>
+        <v>11944</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>2001</v>
+        <v>11385</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="N7" s="7">
-        <v>5862</v>
+        <v>23329</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>574</v>
+        <v>885</v>
       </c>
       <c r="D8" s="7">
-        <v>574793</v>
+        <v>949856</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>566</v>
+        <v>897</v>
       </c>
       <c r="I8" s="7">
-        <v>573595</v>
+        <v>957008</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1140</v>
+        <v>1782</v>
       </c>
       <c r="N8" s="7">
-        <v>1148388</v>
+        <v>1906864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,153 +1731,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3774</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7">
+        <v>12886</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="7">
+        <v>16</v>
+      </c>
+      <c r="N10" s="7">
+        <v>16660</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7">
-        <v>11944</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10319</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="7">
-        <v>21</v>
-      </c>
-      <c r="N10" s="7">
-        <v>22263</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>885</v>
+        <v>638</v>
       </c>
       <c r="D11" s="7">
-        <v>949856</v>
+        <v>674735</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>898</v>
+        <v>683</v>
       </c>
       <c r="I11" s="7">
-        <v>958074</v>
+        <v>670955</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>1783</v>
+        <v>1321</v>
       </c>
       <c r="N11" s="7">
-        <v>1907930</v>
+        <v>1345690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,153 +1886,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>3774</v>
+        <v>9108</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>12886</v>
+        <v>12250</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>16660</v>
+        <v>21358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>638</v>
+        <v>985</v>
       </c>
       <c r="D14" s="7">
-        <v>674735</v>
+        <v>933114</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>683</v>
+        <v>985</v>
       </c>
       <c r="I14" s="7">
-        <v>670955</v>
+        <v>1026362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>1321</v>
+        <v>1970</v>
       </c>
       <c r="N14" s="7">
-        <v>1345690</v>
+        <v>1959476</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,153 +2041,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>9108</v>
+        <v>29741</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I16" s="7">
-        <v>12250</v>
+        <v>39476</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="N16" s="7">
-        <v>21358</v>
+        <v>69216</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>985</v>
+        <v>3186</v>
       </c>
       <c r="D17" s="7">
-        <v>933114</v>
+        <v>3246802</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H17" s="7">
-        <v>985</v>
+        <v>3258</v>
       </c>
       <c r="I17" s="7">
-        <v>1026362</v>
+        <v>3339721</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
-        <v>1970</v>
+        <v>6444</v>
       </c>
       <c r="N17" s="7">
-        <v>1959476</v>
+        <v>6586525</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,217 +2196,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>28</v>
-      </c>
-      <c r="D19" s="7">
-        <v>29741</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="7">
-        <v>37</v>
-      </c>
-      <c r="I19" s="7">
-        <v>37457</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="7">
-        <v>65</v>
-      </c>
-      <c r="N19" s="7">
-        <v>67198</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3186</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3246803</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3260</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3341741</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="A19" t="s">
         <v>98</v>
       </c>
-      <c r="M20" s="7">
-        <v>6446</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6588542</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2533,8 +2263,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9CB2D3-B9FF-4473-9A6D-090BDE8547BF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F675A7-3D71-40A1-9CFB-2712D80FA80C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2550,7 +2280,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2651,100 +2381,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>3303</v>
+        <v>18201</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="7">
+        <v>20</v>
+      </c>
+      <c r="I4" s="7">
+        <v>21253</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>34</v>
+      </c>
+      <c r="N4" s="7">
+        <v>39454</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3478</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="7">
-        <v>6</v>
-      </c>
-      <c r="N4" s="7">
-        <v>6781</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>119</v>
+        <v>660</v>
       </c>
       <c r="D5" s="7">
-        <v>112462</v>
+        <v>685268</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="7">
+        <v>630</v>
+      </c>
+      <c r="I5" s="7">
+        <v>675797</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="7">
-        <v>96</v>
-      </c>
-      <c r="I5" s="7">
-        <v>108427</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1290</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1361065</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="M5" s="7">
-        <v>215</v>
-      </c>
-      <c r="N5" s="7">
-        <v>220889</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,153 +2483,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>14897</v>
+        <v>15665</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>17775</v>
+        <v>18547</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" s="7">
+        <v>32</v>
+      </c>
+      <c r="N7" s="7">
+        <v>34212</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" s="7">
-        <v>28</v>
-      </c>
-      <c r="N7" s="7">
-        <v>32672</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>541</v>
+        <v>921</v>
       </c>
       <c r="D8" s="7">
-        <v>572807</v>
+        <v>1002282</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="7">
+        <v>923</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1013637</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1844</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2015919</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="7">
-        <v>534</v>
-      </c>
-      <c r="I8" s="7">
-        <v>567370</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1075</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1140177</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,153 +2638,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>15665</v>
+        <v>8331</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="7">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7">
+        <v>9138</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="7">
+        <v>16</v>
+      </c>
+      <c r="N10" s="7">
+        <v>17469</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="H10" s="7">
-        <v>17</v>
-      </c>
-      <c r="I10" s="7">
-        <v>18547</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M10" s="7">
-        <v>32</v>
-      </c>
-      <c r="N10" s="7">
-        <v>34212</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>921</v>
+        <v>682</v>
       </c>
       <c r="D11" s="7">
-        <v>1002282</v>
+        <v>749292</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="7">
+        <v>696</v>
+      </c>
+      <c r="I11" s="7">
+        <v>768036</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1378</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1517328</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7">
-        <v>923</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1013637</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1844</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2015919</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,153 +2793,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>8331</v>
+        <v>21314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="7">
+        <v>23</v>
+      </c>
+      <c r="I13" s="7">
+        <v>25277</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>42</v>
+      </c>
+      <c r="N13" s="7">
+        <v>46592</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9138</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M13" s="7">
-        <v>16</v>
-      </c>
-      <c r="N13" s="7">
-        <v>17469</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>682</v>
+        <v>891</v>
       </c>
       <c r="D14" s="7">
-        <v>749292</v>
+        <v>926425</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="7">
+        <v>980</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1026624</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1871</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1953048</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H14" s="7">
-        <v>696</v>
-      </c>
-      <c r="I14" s="7">
-        <v>768036</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1378</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1517328</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,153 +2948,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7">
-        <v>21314</v>
+        <v>63511</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="7">
+        <v>69</v>
+      </c>
+      <c r="I16" s="7">
+        <v>74215</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" s="7">
+        <v>124</v>
+      </c>
+      <c r="N16" s="7">
+        <v>137726</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H16" s="7">
-        <v>23</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25277</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M16" s="7">
-        <v>42</v>
-      </c>
-      <c r="N16" s="7">
-        <v>46592</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>891</v>
+        <v>3154</v>
       </c>
       <c r="D17" s="7">
-        <v>926425</v>
+        <v>3363268</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3229</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3484094</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H17" s="7">
-        <v>980</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1026624</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6383</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6847362</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1871</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1953048</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,217 +3103,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>55</v>
-      </c>
-      <c r="D19" s="7">
-        <v>63511</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="7">
-        <v>69</v>
-      </c>
-      <c r="I19" s="7">
-        <v>74215</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M19" s="7">
-        <v>124</v>
-      </c>
-      <c r="N19" s="7">
-        <v>137726</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3154</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3363268</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3229</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3484094</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6383</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6847362</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3596,8 +3170,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13555E3C-2304-4C14-9CEA-6FBADC20AFC3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27D85C8-6DCD-4AEB-A18D-CB3D503C6CE9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3613,7 +3187,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3714,100 +3288,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>993</v>
+        <v>6974</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>2899</v>
+        <v>8082</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>3892</v>
+        <v>15057</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>112</v>
+        <v>645</v>
       </c>
       <c r="D5" s="7">
-        <v>115553</v>
+        <v>667826</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7">
-        <v>112</v>
+        <v>658</v>
       </c>
       <c r="I5" s="7">
-        <v>110461</v>
+        <v>664757</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
-        <v>224</v>
+        <v>1303</v>
       </c>
       <c r="N5" s="7">
-        <v>226014</v>
+        <v>1332582</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,153 +3390,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>5981</v>
+        <v>12782</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>5184</v>
+        <v>16502</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N7" s="7">
-        <v>11165</v>
+        <v>29285</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>533</v>
+        <v>940</v>
       </c>
       <c r="D8" s="7">
-        <v>552273</v>
+        <v>1009649</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H8" s="7">
-        <v>546</v>
+        <v>962</v>
       </c>
       <c r="I8" s="7">
-        <v>554295</v>
+        <v>1026411</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
-        <v>1079</v>
+        <v>1902</v>
       </c>
       <c r="N8" s="7">
-        <v>1106568</v>
+        <v>2036059</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,153 +3545,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>12782</v>
+        <v>4537</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>16502</v>
+        <v>8898</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>29285</v>
+        <v>13434</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>222</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>940</v>
+        <v>692</v>
       </c>
       <c r="D11" s="7">
-        <v>1009649</v>
+        <v>755015</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>962</v>
+        <v>728</v>
       </c>
       <c r="I11" s="7">
-        <v>1026411</v>
+        <v>776113</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="M11" s="7">
-        <v>1902</v>
+        <v>1420</v>
       </c>
       <c r="N11" s="7">
-        <v>2036059</v>
+        <v>1531129</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>232</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,153 +3700,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>4537</v>
+        <v>7608</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>8898</v>
+        <v>23806</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>13434</v>
+        <v>31414</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>692</v>
+        <v>924</v>
       </c>
       <c r="D14" s="7">
-        <v>755015</v>
+        <v>929959</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
-        <v>728</v>
+        <v>938</v>
       </c>
       <c r="I14" s="7">
-        <v>776113</v>
+        <v>1019973</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
-        <v>1420</v>
+        <v>1862</v>
       </c>
       <c r="N14" s="7">
-        <v>1531129</v>
+        <v>1949932</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,153 +3855,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>7608</v>
+        <v>31901</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I16" s="7">
-        <v>22904</v>
+        <v>57288</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="N16" s="7">
-        <v>30512</v>
+        <v>89190</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>924</v>
+        <v>3201</v>
       </c>
       <c r="D17" s="7">
-        <v>929959</v>
+        <v>3362449</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
-        <v>939</v>
+        <v>3286</v>
       </c>
       <c r="I17" s="7">
-        <v>1020875</v>
+        <v>3487254</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>253</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7">
-        <v>1863</v>
+        <v>6487</v>
       </c>
       <c r="N17" s="7">
-        <v>1950834</v>
+        <v>6849702</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>143</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,217 +4010,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7">
-        <v>31901</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H19" s="7">
-        <v>51</v>
-      </c>
-      <c r="I19" s="7">
-        <v>56387</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M19" s="7">
-        <v>81</v>
-      </c>
-      <c r="N19" s="7">
-        <v>88288</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3201</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3362449</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3287</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3488155</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6488</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6850604</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4659,8 +4077,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B2F6D7-327E-4A74-94C5-61C031B76FE6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90EC23D-849D-4AB8-9298-E66B13941D2D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4676,7 +4094,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4777,100 +4195,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>1291</v>
+        <v>7254</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>3747</v>
+        <v>17439</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>5038</v>
+        <v>24693</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>271</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>116</v>
+        <v>720</v>
       </c>
       <c r="D5" s="7">
-        <v>100691</v>
+        <v>628187</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H5" s="7">
-        <v>237</v>
+        <v>1209</v>
       </c>
       <c r="I5" s="7">
-        <v>126986</v>
+        <v>707891</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>273</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
-        <v>353</v>
+        <v>1929</v>
       </c>
       <c r="N5" s="7">
-        <v>227677</v>
+        <v>1336079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>48</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>277</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,153 +4297,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>6246</v>
+        <v>17137</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I7" s="7">
-        <v>14418</v>
+        <v>26287</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>280</v>
+        <v>58</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="N7" s="7">
-        <v>20664</v>
+        <v>43424</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>604</v>
+        <v>944</v>
       </c>
       <c r="D8" s="7">
-        <v>543577</v>
+        <v>1175727</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>285</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
-        <v>972</v>
+        <v>1472</v>
       </c>
       <c r="I8" s="7">
-        <v>605549</v>
+        <v>932364</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>287</v>
+        <v>66</v>
       </c>
       <c r="M8" s="7">
-        <v>1576</v>
+        <v>2416</v>
       </c>
       <c r="N8" s="7">
-        <v>1149126</v>
+        <v>2108092</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,153 +4452,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>18856</v>
+        <v>21645</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>30077</v>
+        <v>227057</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="N10" s="7">
-        <v>48933</v>
+        <v>248702</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>944</v>
+        <v>654</v>
       </c>
       <c r="D11" s="7">
-        <v>1020392</v>
+        <v>683035</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
-        <v>1471</v>
+        <v>1016</v>
       </c>
       <c r="I11" s="7">
-        <v>1030002</v>
+        <v>706309</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
-        <v>2415</v>
+        <v>1670</v>
       </c>
       <c r="N11" s="7">
-        <v>2050394</v>
+        <v>1389344</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,153 +4607,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>23446</v>
+        <v>26949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I13" s="7">
-        <v>135351</v>
+        <v>33445</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>300</v>
+        <v>103</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="N13" s="7">
-        <v>158797</v>
+        <v>60394</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>653</v>
+        <v>976</v>
       </c>
       <c r="D14" s="7">
-        <v>705326</v>
+        <v>899882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
-        <v>1016</v>
+        <v>1510</v>
       </c>
       <c r="I14" s="7">
-        <v>739020</v>
+        <v>1061487</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
-        <v>1669</v>
+        <v>2486</v>
       </c>
       <c r="N14" s="7">
-        <v>1444345</v>
+        <v>1961369</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,153 +4762,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D16" s="7">
-        <v>27839</v>
+        <v>72985</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="I16" s="7">
-        <v>36347</v>
+        <v>304229</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="N16" s="7">
-        <v>64186</v>
+        <v>377213</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>976</v>
+        <v>3294</v>
       </c>
       <c r="D17" s="7">
-        <v>937564</v>
+        <v>3386832</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>182</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
-        <v>1509</v>
+        <v>5207</v>
       </c>
       <c r="I17" s="7">
-        <v>1114085</v>
+        <v>3408051</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
-        <v>2485</v>
+        <v>8501</v>
       </c>
       <c r="N17" s="7">
-        <v>2051649</v>
+        <v>6794884</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,217 +4917,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>83</v>
-      </c>
-      <c r="D19" s="7">
-        <v>77678</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H19" s="7">
-        <v>162</v>
-      </c>
-      <c r="I19" s="7">
-        <v>219940</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="M19" s="7">
-        <v>245</v>
-      </c>
-      <c r="N19" s="7">
-        <v>297618</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3293</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3307550</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5205</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3615641</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8498</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6923191</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
+      <c r="A19" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
